--- a/slices.xlsx
+++ b/slices.xlsx
@@ -1,39 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\ProjetPoker\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15530" windowHeight="7980" tabRatio="500"/>
+    <workbookView windowWidth="19200" windowHeight="8030" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -70,61 +46,67 @@
     <t>Test ?</t>
   </si>
   <si>
+    <t>Comparer deux mains d'1 carte  de valeurs allant de 2 à 10 sur l'entrée standard et afficher le résultat</t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
     <t>OK</t>
   </si>
   <si>
+    <t>Comparer deux mains d'1 carte de valeurs allant de 2 à AS sur l'entrée standard et afficher le résultat</t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>Comparer deux mains de 2 carte de valeurs allant de 2 à AS sur l'entrée standard et afficher le résultat ( laquelle est la plus grande, vérifier si il y a une suite)</t>
+  </si>
+  <si>
+    <t>Comparer deux mains de 2 cartes d'1 de valeurs allant de 2 à AS sur l'entrée standard et afficher le résultat (implémenter la notion de paire)</t>
+  </si>
+  <si>
+    <t>Comparer deux mains de 3 cartes d'1 couleur de valeurs allant de 2 à AS sur l'entrée standard et afficher le résultat ( laquelle est la plus grande)</t>
+  </si>
+  <si>
+    <t>Comparer deux mains de 3 cartes d'1 couleur de valeurs allant de 2 à AS sur l'entrée standard et afficher le résultat ( en cas de 2 paires passer comparer la 3ème)</t>
+  </si>
+  <si>
+    <t>Comparer deux mains de 3 cartes d'1 couleur de valeurs allant de 2 à AS sur l'entrée standard et afficher le résultat (brelan)</t>
+  </si>
+  <si>
+    <t>Comparer deux mains de 4 cartes d'1 couleur de valeurs allant de 2 à AS sur l'entrée standard et afficher le résultat (carré)</t>
+  </si>
+  <si>
+    <t>Comparer deux mains de 4 cartes d'1 couleur de valeurs allant de 2 à AS sur l'entrée standard et afficher le résultat (double paire)</t>
+  </si>
+  <si>
     <t>PF</t>
   </si>
   <si>
-    <t>NOK</t>
+    <t xml:space="preserve">Comparer deux mains de 5 cartes d'1 couleur de valeurs allant de 2 à AS sur l'entrée standard et afficher le résultat </t>
   </si>
   <si>
     <t>Comparer deux mains de 5 cartes de 4 couleurs de valeurs allant de 2 à AS sur l'entrée standard et afficher le résultat</t>
-  </si>
-  <si>
-    <t>Comparer deux mains d'1 carte  de valeurs allant de 2 à 10 sur l'entrée standard et afficher le résultat</t>
-  </si>
-  <si>
-    <t>Comparer deux mains d'1 carte de valeurs allant de 2 à AS sur l'entrée standard et afficher le résultat</t>
-  </si>
-  <si>
-    <t>Comparer deux mains de 2 cartes d'1 de valeurs allant de 2 à AS sur l'entrée standard et afficher le résultat (implémenter la notion de paire)</t>
-  </si>
-  <si>
-    <t>Comparer deux mains de 2 carte de valeurs allant de 2 à AS sur l'entrée standard et afficher le résultat ( laquelle est la plus grande, vérifier si il y a une suite)</t>
-  </si>
-  <si>
-    <t>Comparer deux mains de 3 cartes d'1 couleur de valeurs allant de 2 à AS sur l'entrée standard et afficher le résultat ( laquelle est la plus grande)</t>
-  </si>
-  <si>
-    <t>Comparer deux mains de 3 cartes d'1 couleur de valeurs allant de 2 à AS sur l'entrée standard et afficher le résultat (brelan)</t>
-  </si>
-  <si>
-    <t>Comparer deux mains de 3 cartes d'1 couleur de valeurs allant de 2 à AS sur l'entrée standard et afficher le résultat ( en cas de 2 paires passer comparer la 3ème)</t>
-  </si>
-  <si>
-    <t>Comparer deux mains de 4 cartes d'1 couleur de valeurs allant de 2 à AS sur l'entrée standard et afficher le résultat (carré)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comparer deux mains de 5 cartes d'1 couleur de valeurs allant de 2 à AS sur l'entrée standard et afficher le résultat </t>
-  </si>
-  <si>
-    <t>Comparer deux mains de 4 cartes d'1 couleur de valeurs allant de 2 à AS sur l'entrée standard et afficher le résultat (double paire)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* \-??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* \-_-;_-@_-"/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -132,27 +114,146 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,18 +262,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59996337778862885"/>
+        <fgColor theme="0" tint="-0.149998474074526"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599963377788629"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -208,89 +495,322 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
+  <cellStyles count="47">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Virgule" xfId="1" builtinId="3"/>
+    <cellStyle name="Monétaire" xfId="2" builtinId="4"/>
+    <cellStyle name="Pourcentage" xfId="3" builtinId="5"/>
+    <cellStyle name="Milliers [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Monétaire [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Note" xfId="6" builtinId="10"/>
+    <cellStyle name="Avertissement" xfId="7" builtinId="11"/>
+    <cellStyle name="Titre" xfId="8" builtinId="15"/>
+    <cellStyle name="CTexte explicatif" xfId="9" builtinId="53"/>
+    <cellStyle name="Titre 1" xfId="10" builtinId="16"/>
+    <cellStyle name="Titre 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Titre 3" xfId="12" builtinId="18"/>
+    <cellStyle name="Titre 4" xfId="13" builtinId="19"/>
+    <cellStyle name="Entrée" xfId="14" builtinId="20"/>
+    <cellStyle name="Sortie" xfId="15" builtinId="21"/>
+    <cellStyle name="Calcul" xfId="16" builtinId="22"/>
+    <cellStyle name="Vérification de cellule" xfId="17" builtinId="23"/>
+    <cellStyle name="Cellule liée" xfId="18" builtinId="24"/>
+    <cellStyle name="Total" xfId="19" builtinId="25"/>
+    <cellStyle name="Satisfaisant" xfId="20" builtinId="26"/>
+    <cellStyle name="Insatisfaisant" xfId="21" builtinId="27"/>
+    <cellStyle name="Neutre" xfId="22" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="23" builtinId="29"/>
+    <cellStyle name="20 % - Accent1" xfId="24" builtinId="30"/>
+    <cellStyle name="40 % - Accent1" xfId="25" builtinId="31"/>
+    <cellStyle name="60 % - Accent1" xfId="26" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="27" builtinId="33"/>
+    <cellStyle name="20 % - Accent2" xfId="28" builtinId="34"/>
+    <cellStyle name="40 % - Accent2" xfId="29" builtinId="35"/>
+    <cellStyle name="60 % - Accent2" xfId="30" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="31" builtinId="37"/>
+    <cellStyle name="20 % - Accent3" xfId="32" builtinId="38"/>
+    <cellStyle name="40 % - Accent3" xfId="33" builtinId="39"/>
+    <cellStyle name="60 % - Accent3" xfId="34" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="35" builtinId="41"/>
+    <cellStyle name="20 % - Accent4" xfId="36" builtinId="42"/>
+    <cellStyle name="40 % - Accent4" xfId="37" builtinId="43"/>
+    <cellStyle name="60 % - Accent4" xfId="38" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="39" builtinId="45"/>
+    <cellStyle name="20 % - Accent5" xfId="40" builtinId="46"/>
+    <cellStyle name="40 % - Accent5" xfId="41" builtinId="47"/>
+    <cellStyle name="60 % - Accent5" xfId="42" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="43" builtinId="49"/>
+    <cellStyle name="20 % - Accent6" xfId="44" builtinId="50"/>
+    <cellStyle name="40 % - Accent6" xfId="45" builtinId="51"/>
+    <cellStyle name="60 % - Accent6" xfId="46" builtinId="52"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
@@ -300,65 +820,15 @@
         <color rgb="FF006100"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -367,9 +837,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -418,7 +885,7 @@
     </a:clrScheme>
     <a:fontScheme name="Bureau">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -453,7 +920,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -627,248 +1094,243 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.08203125" customWidth="1"/>
-    <col min="2" max="2" width="60.08203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="40.58203125" customWidth="1"/>
-    <col min="5" max="5" width="13.08203125" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" customWidth="1"/>
-    <col min="7" max="7" width="12.58203125" customWidth="1"/>
+    <col min="1" max="1" width="7.08333333333333" customWidth="1"/>
+    <col min="2" max="2" width="60.0833333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.5833333333333" customWidth="1"/>
+    <col min="5" max="5" width="13.0833333333333" customWidth="1"/>
+    <col min="6" max="6" width="13.8333333333333" customWidth="1"/>
+    <col min="7" max="7" width="12.5833333333333" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" ht="15.5" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" ht="15.5" spans="1:8">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="31" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+    <row r="3" ht="31" spans="1:8">
+      <c r="A3" s="3">
         <f>ROW(A3)-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="31" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="31" spans="1:8">
+      <c r="A4" s="3">
         <f t="shared" ref="A4:A9" si="0">ROW(A4)-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="46.5" spans="1:8">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" ht="31" spans="1:8">
+      <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" ht="31" spans="1:8">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" ht="31" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" ht="31" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" ht="46.5" spans="1:8">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" ht="31" spans="1:8">
+      <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" ht="32.5" customHeight="1" spans="1:5">
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>22</v>
+      <c r="B10" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" ht="35" customHeight="1" spans="1:5">
       <c r="A11">
         <v>6</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" ht="41" customHeight="1" spans="1:5">
       <c r="A12">
         <v>7</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="5"/>
-    </row>
-    <row r="18" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="5"/>
-    </row>
-    <row r="19" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="5"/>
-    </row>
-    <row r="20" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="5"/>
-    </row>
-    <row r="21" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="5"/>
-    </row>
-    <row r="22" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="2:2">
+      <c r="B13" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" ht="15.5" spans="2:2">
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" ht="15.5" spans="2:2">
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" ht="15.5" spans="2:2">
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" customHeight="1" spans="2:2">
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" customHeight="1" spans="2:2">
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" customHeight="1" spans="2:2">
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" customHeight="1" spans="2:2">
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" customHeight="1" spans="2:2">
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" customHeight="1" spans="2:2">
+      <c r="B22" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -876,38 +1338,8 @@
     <mergeCell ref="G1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="E9">
-    <cfRule type="containsText" dxfId="8" priority="14" operator="containsText" text="PF">
+    <cfRule type="containsText" dxfId="0" priority="14" operator="between" text="PF">
       <formula>NOT(ISERROR(SEARCH("PF",E9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3 H9">
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="NOK">
-      <formula>NOT(ISERROR(SEARCH("NOK",H3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:F1 A2:E3 C4:E9 A10:A1048576 C10:F1048576 B4:B1048576">
-    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:I1 F2:H3 F9:H9 G10:I1048576">
-    <cfRule type="cellIs" dxfId="5" priority="12" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E8">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="PF">
-      <formula>NOT(ISERROR(SEARCH("PF",E4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H8">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="NOK">
-      <formula>NOT(ISERROR(SEARCH("NOK",H4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4:H8">
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
-      <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A9">
@@ -915,7 +1347,38 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E8">
+    <cfRule type="containsText" dxfId="0" priority="9" operator="between" text="PF">
+      <formula>NOT(ISERROR(SEARCH("PF",E4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H8">
+    <cfRule type="containsText" dxfId="2" priority="7" operator="between" text="NOK">
+      <formula>NOT(ISERROR(SEARCH("NOK",H4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:F1;A2:E3;C4:E9;A10:A1048576;C10:F1048576;B4:B1048576">
+    <cfRule type="cellIs" dxfId="1" priority="15" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:I1;F2:H3;F9:H9;G10:I1048576">
+    <cfRule type="cellIs" dxfId="1" priority="12" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3;H9">
+    <cfRule type="containsText" dxfId="2" priority="11" operator="between" text="NOK">
+      <formula>NOT(ISERROR(SEARCH("NOK",H3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:H8">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>